--- a/biology/Histoire de la zoologie et de la botanique/Johann_Ludwig_Christian_Carl_Gravenhorst/Johann_Ludwig_Christian_Carl_Gravenhorst.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Ludwig_Christian_Carl_Gravenhorst/Johann_Ludwig_Christian_Carl_Gravenhorst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Ludwig Christian Carl Gravenhorst est un zoologiste allemand, né le 14 novembre 1777 à Brunswick et mort le 14 janvier 1857 à Breslau.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'intéresse très tôt aux insectes sous l'influence de deux de ses professeurs, entomologistes amateurs. Il entre à l'université d'Helmstedt pour y étudier le droit en 1797. La mort de son père deux ans plus tard lui laissant une grande fortune, il peut changer d'orientation et part à l'université de Göttingen où il suivra les cours de Johann Friedrich Blumenbach (1752-1840). Il revient passer sa thèse à Helmstedt sur un sujet d'entomologie.
 Il se rend à Paris en 1802 et rencontre alors Georges Cuvier (1769-1832), Pierre André Latreille (1762-1833) et Alexandre Brongniart (1770-1847). Parallèlement à ses études, il peut se constituer, grâce à ses moyens financiers, une très importante collection d'histoire naturelle.
